--- a/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010841</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝红利精选混合C</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>40.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100032</t>
+          <t>008682</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>富国中证红利指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.45</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.47</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.53</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.53</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519162</t>
+          <t>003304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新华增怡债券A</t>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519163</t>
+          <t>009500</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>新华增怡债券C</t>
+          <t>国寿安保高股息混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006165</t>
+          <t>003305</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强A</t>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006166</t>
+          <t>162216</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信中证1000指数增强C</t>
+          <t>泰达宏利中证500指数增强（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001532</t>
+          <t>005541</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安文体健康主题灵活配置混合</t>
+          <t>前海开源盛鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>690003</t>
+          <t>001532</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>民生加银精选混合</t>
+          <t>华安文体健康主题灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008682</t>
+          <t>690003</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强C</t>
+          <t>民生加银精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>162216</t>
+          <t>005542</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
+          <t>前海开源盛鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.08</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501072</t>
+          <t>009263</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+          <t>华宝红利精选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>97.85</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005541</t>
+          <t>006165</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
+          <t>建信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005542</t>
+          <t>006166</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
+          <t>建信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003304</t>
+          <t>519162</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
+          <t>新华增怡债券A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003305</t>
+          <t>501072</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009263</t>
+          <t>009501</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华宝红利精选混合A</t>
+          <t>国寿安保高股息混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>519163</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>新华增怡债券C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>62.26</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>009501</t>
+          <t>010841</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合C</t>
+          <t>华宝红利精选混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>62.26</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,15 +1288,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003670</t>
+          <t>001167</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融物联网主题灵活配置混合</t>
+          <t>金鹰科技创新股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>81.01</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.94</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.94</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001167</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>金鹰科技创新股票</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.43</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6846</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2398,4 +2399,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3670</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1461</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8419</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4708</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1302</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003670</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融物联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3329,4 +3330,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3338,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,17 +3350,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3369,14 +3390,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.63</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3385,14 +3428,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8030</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>6.51</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="4">
@@ -3401,14 +3534,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="5">
@@ -3417,13 +3550,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>20</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3471,7 +3472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3482,17 +3483,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3502,14 +3523,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.39</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>181.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3518,14 +3561,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.63</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3534,14 +3599,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.51</v>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7277</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3550,14 +3637,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1827</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3566,13 +3675,2409 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1705</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8573</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7385</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4831</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4359</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3728</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012138</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>32.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2466</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1317</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011018</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>67.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家中证红利指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001520</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>012139</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城安益回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011019</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>景顺长城安泽回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001273</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001274</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>民生加银新动力灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5960,7 +5961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5971,17 +5972,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5991,14 +6012,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.56</v>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>178.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6007,14 +6050,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.39</v>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5705</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6023,14 +6088,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.63</v>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -6039,14 +6126,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.51</v>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6352</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6055,14 +6164,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08</v>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6071,13 +6202,1247 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3432</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001266</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银招财灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>23</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.19</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D2" t="n">
-        <v>9.949999999999999</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>20.56</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>5.39</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>15.63</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>6.51</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.19</v>
       </c>
     </row>
@@ -600,6 +617,3708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>140.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6077</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3736</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1606</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1506</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1469</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8906</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8035</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7183</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6717</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6710</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6501</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6339</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5844</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>66.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5243</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013095</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4351</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4221</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000165</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银策略精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>60.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2231</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>68.34</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013096</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.84</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005041</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>人保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013636</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>44.98</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012808</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013637</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国投瑞银策略回报混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005042</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>人保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>62.10</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1947,7 +5666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4435,7 +8154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4560,936 +8279,6 @@
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>154.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.9582</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5664</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>100032</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>63.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4518</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3670</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161724</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>28.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1461</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>30.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8419</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4708</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519185</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4422</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3797</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2419</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007657</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方红中证竞争力指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2002</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519191</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家新利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1302</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160620</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0644</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519212</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家宏观择时多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0622</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0561</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>161715</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0493</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007658</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东方红中证竞争力指数C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.59</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -5564,26 +8353,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>156.79</t>
+          <t>154.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.54</t>
+          <t>96.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6846</t>
+          <t>6.9582</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5592,36 +8381,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>35.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.68</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4378</t>
+          <t>1.5664</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5630,36 +8419,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>63.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.70</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3241</t>
+          <t>1.4518</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5668,36 +8457,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>32.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2791</t>
+          <t>1.3670</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5706,36 +8495,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>530005</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信优化配置混合</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.85</t>
+          <t>28.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>55.95</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2749</t>
+          <t>1.1461</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -5744,36 +8533,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2158</t>
+          <t>0.8419</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -5782,36 +8571,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.11</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2153</t>
+          <t>0.4708</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -5820,36 +8609,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>519185</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>万家精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1843</t>
+          <t>0.4422</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -5858,36 +8647,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008705</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发高股息优享混合C</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.68</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1626</t>
+          <t>0.3797</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -5896,36 +8685,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010469</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>圆信永丰聚优股票型证券投资基金A</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.60</t>
+          <t>99.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1232</t>
+          <t>0.2419</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -5934,36 +8723,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>007657</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>东方红中证竞争力指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71.96</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1197</t>
+          <t>0.2002</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -5972,36 +8761,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>519191</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>万家新利灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0858</t>
+          <t>0.1302</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -6010,32 +8799,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011550</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合A</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0830</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -6048,32 +8837,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0725</t>
+          <t>0.0644</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -6086,36 +8875,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>519212</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>万家宏观择时多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.92</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0570</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -6124,36 +8913,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0467</t>
+          <t>0.0561</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -6162,36 +8951,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009908</t>
+          <t>161715</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合C</t>
+          <t>招商中证大宗商品股票指数（LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71.96</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0493</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -6200,27 +8989,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -6229,7 +9018,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -6238,32 +9027,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0316</t>
+          <t>0.0311</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -6276,36 +9065,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>007658</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>东方红中证竞争力指数C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -6314,36 +9103,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011551</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合C</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>83.59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -6352,36 +9141,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010470</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>圆信永丰聚优股票型证券投资基金C</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25.60</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -6390,36 +9179,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009501</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合C</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.92</t>
+          <t>98.44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -6428,6 +9217,936 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6846</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6635,7 +10354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/600985-淮北矿业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>23.34</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D3" t="n">
-        <v>9.949999999999999</v>
+        <v>23.34</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>20.56</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>5.39</v>
+        <v>20.56</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>15.63</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>6.51</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.19</v>
       </c>
     </row>
@@ -616,7 +633,1903 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5980</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001532</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安文体健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>690003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519162</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华增怡债券A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华增怡债券C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9167</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4486</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004232</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015652</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1344</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005764</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>015572</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>72.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001882</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧价值发现混合 -E</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4318,7 +6231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5666,7 +7579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8154,7 +10067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8279,936 +10192,6 @@
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>510880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证红利ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>154.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6.9582</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.5664</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>100032</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>63.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4518</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.3670</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161724</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>28.16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.1461</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>090010</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成中证红利指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>30.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.8419</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4708</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>519185</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>万家精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.52</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4422</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515180</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>13.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3797</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>515080</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2419</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007657</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方红中证竞争力指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2002</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519191</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家新利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1302</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160620</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华中证A股资源产业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0644</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519212</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>万家宏观择时多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.96</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.40</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0622</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>161907</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>万家中证红利指数(LOF)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0561</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>161715</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商中证大宗商品股票指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0493</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007801</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>大成中证红利指数C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0388</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>007658</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东方红中证竞争力指数C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0280</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>003670</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融物联网主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>83.59</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>515890</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时中证红利ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>98.45</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>98.44</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -9283,26 +10266,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>156.79</t>
+          <t>154.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>96.54</t>
+          <t>96.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.6846</t>
+          <t>6.9582</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -9311,36 +10294,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008704</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发高股息优享混合A</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>35.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.68</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4378</t>
+          <t>1.5664</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -9349,36 +10332,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>100032</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>63.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.70</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3241</t>
+          <t>1.4518</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -9387,36 +10370,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>32.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.14</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2791</t>
+          <t>1.3670</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -9425,36 +10408,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>530005</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信优化配置混合</t>
+          <t>招商中证煤炭等权指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.85</t>
+          <t>28.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>55.95</t>
+          <t>93.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2749</t>
+          <t>1.1461</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -9463,36 +10446,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>090010</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>30.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2158</t>
+          <t>0.8419</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -9501,36 +10484,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004119</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发创新驱动灵活配置混合</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>67.11</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2153</t>
+          <t>0.4708</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -9539,36 +10522,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>519185</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>万家精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1843</t>
+          <t>0.4422</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -9577,36 +10560,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008705</t>
+          <t>515180</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发高股息优享混合C</t>
+          <t>易方达中证红利ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>76.68</t>
+          <t>98.99</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1626</t>
+          <t>0.3797</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -9615,36 +10598,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010469</t>
+          <t>515080</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>圆信永丰聚优股票型证券投资基金A</t>
+          <t>招商中证红利ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19.55</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.60</t>
+          <t>99.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1232</t>
+          <t>0.2419</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -9653,36 +10636,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>007657</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>东方红中证竞争力指数A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71.96</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1197</t>
+          <t>0.2002</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -9691,36 +10674,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>519191</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>万家新利灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0858</t>
+          <t>0.1302</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -9729,32 +10712,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011550</t>
+          <t>160620</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合A</t>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0830</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -9767,32 +10750,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0725</t>
+          <t>0.0644</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -9805,36 +10788,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>519212</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>万家宏观择时多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>76.92</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0570</t>
+          <t>0.0622</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -9843,36 +10826,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>161907</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>万家中证红利指数(LOF)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.24</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0467</t>
+          <t>0.0561</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -9881,36 +10864,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009908</t>
+          <t>161715</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合C</t>
+          <t>招商中证大宗商品股票指数（LOF）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71.96</t>
+          <t>94.10</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0493</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -9919,27 +10902,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>007801</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合</t>
+          <t>大成中证红利指数C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -9948,7 +10931,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -9957,32 +10940,32 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>93.46</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0316</t>
+          <t>0.0311</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -9995,36 +10978,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>007658</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>东方红中证竞争力指数C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -10033,36 +11016,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011551</t>
+          <t>003670</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合C</t>
+          <t>中融物联网主题灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>83.59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -10071,36 +11054,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010470</t>
+          <t>515890</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>圆信永丰聚优股票型证券投资基金C</t>
+          <t>博时中证红利ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>25.60</t>
+          <t>98.45</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -10109,36 +11092,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>009501</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合C</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>76.92</t>
+          <t>98.44</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -10147,6 +11130,936 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>156.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6846</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3241</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信优化配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>55.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2749</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1843</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>71.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10352,820 +12265,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>100032</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.68</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5980</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008682</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>40.68</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5980</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005125</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1816</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>501029</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝标普中国A股红利机会指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1816</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1734</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1011</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0966</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>162216</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰达宏利中证500指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0612</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005541</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001532</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安文体健康主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0492</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>690003</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>民生加银精选混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.14</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0491</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005542</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>前海开源盛鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.16</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009263</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006165</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006166</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>建信中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519162</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>新华增怡债券A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>519163</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>新华增怡债券C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010841</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华宝红利精选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>